--- a/Variables and Input.xlsx
+++ b/Variables and Input.xlsx
@@ -134,19 +134,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ArrayList&lt;String&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储Server列表(IP:Port以String形式存下)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clientList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存储Client列表(IP:Port以String形式存下)</t>
+    <t>ArrayList&lt;HashMap&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储Server列表(参见PPT Exchange Command)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储Client列表(参见PPT Exchange Command)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,13 +250,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,7 +556,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -570,11 +570,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" customHeight="1">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="6.5" customHeight="1"/>
     <row r="3" spans="1:6">
@@ -598,16 +598,16 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -616,29 +616,29 @@
         <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
